--- a/data/performance_sheets_option3_flatten/window1/BA11 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option3_flatten/window1/BA11 Overall Model Peformance Results.xlsx
@@ -894,19 +894,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04844702540556579</v>
+        <v>0.0548748226072627</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.174112410629967</v>
+        <v>0.1811024658773774</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.3489182037358353</v>
+        <v>0.6252691097656474</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2201068499742018</v>
+        <v>0.2342537568690474</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>27.08656660991536</v>
+        <v>31.77616228482158</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -924,19 +924,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.04844702540556579</v>
+        <v>0.0548748226072627</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.174112410629967</v>
+        <v>0.1811024658773774</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.3489182037358353</v>
+        <v>0.6252691097656474</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2201068499742018</v>
+        <v>0.2342537568690474</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>27.08656660991536</v>
+        <v>31.77616228482158</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -1014,23 +1014,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0285486451926583</v>
+        <v>0.0346265278704485</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1381218472145098</v>
+        <v>0.1376745949380148</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2547389123984613</v>
+        <v>0.4272846846401426</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.168963443361747</v>
+        <v>0.1860820460722865</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>22.15189125909536</v>
+        <v>25.31296018291594</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -1044,23 +1044,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.02844417114089064</v>
+        <v>0.0344273701720314</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1385550408160632</v>
+        <v>0.1373772722071492</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.2543468867460247</v>
+        <v>0.4265205562876267</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.1686539982950023</v>
+        <v>0.1855461402779141</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>22.238548895875</v>
+        <v>25.27615288240484</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -1592,23 +1592,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03744086038078449</v>
+        <v>0.0215537141085677</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1468915093251235</v>
+        <v>0.09958493720048341</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2532738884673524</v>
+        <v>0.2260684345086832</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.193496409219356</v>
+        <v>0.1468118323179971</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>23.04582828085431</v>
+        <v>19.17669387452593</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -1622,23 +1622,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.03734882186100184</v>
+        <v>0.0208422271769655</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1466616997299325</v>
+        <v>0.1123709617603704</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.2521968131424639</v>
+        <v>0.2703637326164476</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.193258432832831</v>
+        <v>0.1443683731880551</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>23.01598192011974</v>
+        <v>21.53955974204709</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.04043129831552505</v>
+        <v>0.04043129</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1411173939704895</v>
+        <v>0.14111738</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.6436291337013245</v>
+        <v>0.64362913</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2010753548188466</v>
+        <v>0.2010753362920088</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>25.90778172016144</v>
+        <v>25.9077787399292</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -1770,19 +1770,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.07460247725248337</v>
+        <v>0.07460253999999999</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.206963449716568</v>
+        <v>0.20696354</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.8475213050842285</v>
+        <v>0.8475216</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2731345405701801</v>
+        <v>0.2731346496824014</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>33.81704688072205</v>
+        <v>33.81705582141876</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -1802,19 +1802,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03821545094251633</v>
+        <v>0.038212918</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1745329648256302</v>
+        <v>0.1745295</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2368225604295731</v>
+        <v>0.23682034</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1954877258103851</v>
+        <v>0.1954812465304878</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>26.35791897773743</v>
+        <v>26.35834217071533</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -1832,19 +1832,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.03107770159840584</v>
+        <v>0.031077702</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1488256603479385</v>
+        <v>0.14882563</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2000178843736649</v>
+        <v>0.20001788</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1762886882315648</v>
+        <v>0.1762886882315647</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>22.56532609462738</v>
+        <v>22.56532460451126</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -1864,19 +1864,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03628790006041527</v>
+        <v>0.035458997</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1318876594305038</v>
+        <v>0.12916854</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.572210967540741</v>
+        <v>0.56615347</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1904938320797166</v>
+        <v>0.1883055944255916</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>24.50005859136581</v>
+        <v>24.12749826908112</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -1894,19 +1894,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.03614507615566254</v>
+        <v>0.035747178</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1422407180070877</v>
+        <v>0.13423826</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.5748094320297241</v>
+        <v>0.5921783</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.1901185844562875</v>
+        <v>0.1890692410173686</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>27.37396359443665</v>
+        <v>25.93493461608887</v>
       </c>
     </row>
   </sheetData>
@@ -2209,19 +2209,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.341187436246534</v>
+        <v>0.4298435413725182</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3682248017734828</v>
+        <v>0.4031887841926556</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2680821073384063</v>
+        <v>0.358509749287132</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5841125201932706</v>
+        <v>0.6556245429912749</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>16.48242223288885</v>
+        <v>18.98306486779321</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -2235,23 +2235,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.341187436246534</v>
+        <v>0.4298435413725182</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.3682248017734828</v>
+        <v>0.4031887841926556</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.2680821073384063</v>
+        <v>0.358509749287132</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.5841125201932706</v>
+        <v>0.6556245429912749</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>16.48242223288885</v>
+        <v>18.98306486779321</v>
       </c>
     </row>
     <row r="10">
@@ -2333,19 +2333,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1986643274155895</v>
+        <v>0.4212426362925123</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3667050053534488</v>
+        <v>0.5306289026493894</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1600610398088079</v>
+        <v>0.2911051637887066</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4457177665469366</v>
+        <v>0.6490320764742775</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>14.98297307568387</v>
+        <v>24.28486614523069</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -2363,19 +2363,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.1900658202142755</v>
+        <v>0.4534162853288772</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.3628372671234399</v>
+        <v>0.5679116335494393</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.155762881537678</v>
+        <v>0.2942469525118957</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.4359653887802052</v>
+        <v>0.6733619274423505</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>14.92023124199898</v>
+        <v>26.0387845413698</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -2907,23 +2907,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>2.482172797826763</v>
+        <v>4.768058182230233</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.432703158710439</v>
+        <v>2.094738438393116</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.5379385677700375</v>
+        <v>0.8351502063487319</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.575491287766061</v>
+        <v>2.183588372892252</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>77.66809730067376</v>
+        <v>141.9566507557533</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -2937,23 +2937,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>1.5508827589986</v>
+        <v>3.550984038715741</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>1.163611078831611</v>
+        <v>1.760646688424452</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.4907623306576907</v>
+        <v>0.7005676255868809</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>1.245344433881085</v>
+        <v>1.884405486808968</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>56.86729196929662</v>
+        <v>105.495033009759</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -3055,19 +3055,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.8000673651695251</v>
+        <v>0.8000674</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.5737141966819763</v>
+        <v>0.5737144</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4906406700611115</v>
+        <v>0.49064067</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.8944648484817752</v>
+        <v>0.8944648818003812</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>23.90654683113098</v>
+        <v>23.90655130147934</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -3085,19 +3085,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.7269993424415588</v>
+        <v>0.7269994</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.5521090030670166</v>
+        <v>0.5521091</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.4581058621406555</v>
+        <v>0.45810595</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.8526425642914848</v>
+        <v>0.8526425992443748</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>23.39806109666824</v>
+        <v>23.39806407690048</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -3117,19 +3117,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3979470431804657</v>
+        <v>0.39794716</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5763877034187317</v>
+        <v>0.57638776</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2202199250459671</v>
+        <v>0.22021997</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.6308304393261835</v>
+        <v>0.6308305338121762</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>23.83606433868408</v>
+        <v>23.83607029914856</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -3147,16 +3147,16 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.4762588441371918</v>
+        <v>0.47625875</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.6443039774894714</v>
+        <v>0.64430386</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.250815749168396</v>
+        <v>0.25081572</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.6901150948480925</v>
+        <v>0.6901150300712372</v>
       </c>
       <c r="P23" s="8" t="n">
         <v>27.04974710941315</v>
@@ -3179,19 +3179,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6085578799247742</v>
+        <v>0.61529416</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.476086288690567</v>
+        <v>0.4812109</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4293459951877594</v>
+        <v>0.43213275</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7801011985151505</v>
+        <v>0.7844068832300681</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>21.04327082633972</v>
+        <v>21.20410948991776</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -3209,19 +3209,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>1.157743215560913</v>
+        <v>1.1572534</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.8690428733825684</v>
+        <v>0.8685748599999999</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.6158287525177002</v>
+        <v>0.615915</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>1.075984765487371</v>
+        <v>1.075757121561437</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>32.71454870700836</v>
+        <v>32.6994389295578</v>
       </c>
     </row>
   </sheetData>
@@ -3521,19 +3521,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2596840165691064</v>
+        <v>0.3667775124604558</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3292895567667161</v>
+        <v>0.3721706215985295</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2067857154789246</v>
+        <v>0.2960864416258728</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5095920099148988</v>
+        <v>0.6056215918050278</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>14.11028569766919</v>
+        <v>17.07852875592023</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -3551,19 +3551,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.2596840165691064</v>
+        <v>0.3667775124604558</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.3292895567667161</v>
+        <v>0.3721706215985295</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.2067857154789246</v>
+        <v>0.2960864416258728</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.5095920099148988</v>
+        <v>0.6056215918050278</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>14.11028569766919</v>
+        <v>17.07852875592023</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -3645,19 +3645,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2935846764036268</v>
+        <v>0.2332671437412155</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4497376935763593</v>
+        <v>0.3902048847572313</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2159515915712121</v>
+        <v>0.1936626307825653</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5418345470746829</v>
+        <v>0.482977373943351</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>19.1645530445216</v>
+        <v>18.15091239927058</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -3675,19 +3675,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.2310175960442371</v>
+        <v>0.369214676496232</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.3938874658598439</v>
+        <v>0.4754440222670109</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1632976837709694</v>
+        <v>0.2363780186041889</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.4806428986724314</v>
+        <v>0.607630378187457</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>16.74846440861567</v>
+        <v>21.66364858235752</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -4223,19 +4223,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.110029798250699</v>
+        <v>1.729880349368502</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9611539963685021</v>
+        <v>1.203043725342102</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3867663087599376</v>
+        <v>0.510232474859134</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.053579516814322</v>
+        <v>1.315249158664815</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>45.73630052573328</v>
+        <v>65.41585582315825</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -4249,23 +4249,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.6746310028784992</v>
+        <v>2.015320081803718</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.7006239351246423</v>
+        <v>1.336521545122499</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.2965493728271066</v>
+        <v>0.5664318298411398</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.8213592410623376</v>
+        <v>1.41961969618758</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>31.47080640417204</v>
+        <v>70.48280517811015</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -4367,13 +4367,13 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.4163439273834229</v>
+        <v>0.41634393</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4759551584720612</v>
+        <v>0.47595516</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3247407078742981</v>
+        <v>0.3247407</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.6452471831658181</v>
@@ -4397,19 +4397,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.3785152733325958</v>
+        <v>0.37851527</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.3726324737071991</v>
+        <v>0.37263247</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2971490919589996</v>
+        <v>0.29714906</v>
       </c>
       <c r="O22" s="8" t="n">
         <v>0.6152359493174921</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>17.07059890031815</v>
+        <v>17.07060188055038</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -4429,19 +4429,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5173007845878601</v>
+        <v>0.5173205</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6420454978942871</v>
+        <v>0.6420679</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2355739325284958</v>
+        <v>0.23558357</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.719236250885521</v>
+        <v>0.719249966093347</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>26.51388049125671</v>
+        <v>26.51476562023163</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -4459,19 +4459,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.1036351472139359</v>
+        <v>0.10363518</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2354122400283813</v>
+        <v>0.23541233</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.08414042741060257</v>
+        <v>0.08414044</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.3219241326988951</v>
+        <v>0.3219241789866959</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>8.862631022930145</v>
+        <v>8.862634003162384</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -4491,19 +4491,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4648174345493317</v>
+        <v>0.46484002</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5637431144714355</v>
+        <v>0.56374013</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3312635123729706</v>
+        <v>0.33126947</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6817752082243324</v>
+        <v>0.6817917751848445</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>25.25068819522858</v>
+        <v>25.25053322315216</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -4521,19 +4521,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.9762162566184998</v>
+        <v>0.9762741</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.7859684228897095</v>
+        <v>0.7860004</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.5170570611953735</v>
+        <v>0.5170725</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.9880365664379531</v>
+        <v>0.9880658242869914</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>29.46082651615143</v>
+        <v>29.46170568466187</v>
       </c>
     </row>
   </sheetData>
@@ -4833,19 +4833,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1665199396186878</v>
+        <v>0.3358593909766639</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2819851710152386</v>
+        <v>0.3497250304654388</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.130436080137935</v>
+        <v>0.262176175531061</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4080685476959574</v>
+        <v>0.5795337703504981</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>11.19906587001983</v>
+        <v>15.8342721855699</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -4863,19 +4863,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.1665199396186878</v>
+        <v>0.3358593909766639</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2819851710152386</v>
+        <v>0.3497250304654388</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.130436080137935</v>
+        <v>0.262176175531061</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.4080685476959574</v>
+        <v>0.5795337703504981</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>11.19906587001983</v>
+        <v>15.8342721855699</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -4957,19 +4957,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1850527236681562</v>
+        <v>0.2028253439482782</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3521249757216268</v>
+        <v>0.3795527629011743</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1495521660105339</v>
+        <v>0.1441547401680146</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4301775490052406</v>
+        <v>0.4503613481952888</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>13.49852596745654</v>
+        <v>15.9185726315593</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -4987,19 +4987,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.144471310011812</v>
+        <v>0.1563632310238658</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.3008357684626207</v>
+        <v>0.3323207628516579</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1300247367058779</v>
+        <v>0.1288131526079335</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.3800938173817249</v>
+        <v>0.3954279087569133</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>11.56975613610136</v>
+        <v>13.70298819689018</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -5535,19 +5535,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.627631989117326</v>
+        <v>1.879593370473545</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.166244380250842</v>
+        <v>1.203050310999394</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.4353912266078519</v>
+        <v>0.4720526268253782</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.275786811782175</v>
+        <v>1.370982629530201</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>56.70869118090637</v>
+        <v>67.34576331074706</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -5565,19 +5565,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>1.510294511005913</v>
+        <v>2.627075586262167</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>1.116465224270856</v>
+        <v>1.432307634186045</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.4145852451386147</v>
+        <v>0.5674635629345031</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>1.228940401730659</v>
+        <v>1.620825587860139</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>54.15219604589551</v>
+        <v>87.42879896671153</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -5679,13 +5679,13 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>1.223906278610229</v>
+        <v>1.2239063</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.9430647492408752</v>
+        <v>0.94306475</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.544853687286377</v>
+        <v>0.5448537</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>1.106302977764333</v>
@@ -5709,19 +5709,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.9583464860916138</v>
+        <v>0.9583464</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.7888245582580566</v>
+        <v>0.78882456</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.48323655128479</v>
+        <v>0.48323652</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.9789517281723413</v>
+        <v>0.978951697729244</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>29.01653945446014</v>
+        <v>29.01653647422791</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -5741,19 +5741,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2366679012775421</v>
+        <v>0.2366854</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4207841455936432</v>
+        <v>0.42080298</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1455366909503937</v>
+        <v>0.14554329</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.486485252888042</v>
+        <v>0.486503232508052</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>16.0535454750061</v>
+        <v>16.0543218255043</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -5771,19 +5771,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.1075344830751419</v>
+        <v>0.10753435</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2861996591091156</v>
+        <v>0.28619948</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.09986773878335953</v>
+        <v>0.09986766399999999</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.3279245081953191</v>
+        <v>0.3279243037115291</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>10.64670234918594</v>
+        <v>10.64669266343117</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -5803,19 +5803,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4485549926757812</v>
+        <v>0.4487842</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3846820294857025</v>
+        <v>0.38499397</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3030958771705627</v>
+        <v>0.30320528</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6697424823585415</v>
+        <v>0.6699135782601103</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>16.76962971687317</v>
+        <v>16.78007841110229</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -5833,19 +5833,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.7529696822166443</v>
+        <v>0.7528311600000001</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.6613544225692749</v>
+        <v>0.6612460999999999</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.4263040721416473</v>
+        <v>0.42625716</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.8677382567437282</v>
+        <v>0.8676584356889445</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>25.33616721630096</v>
+        <v>25.33300817012787</v>
       </c>
     </row>
   </sheetData>
@@ -6143,19 +6143,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1155970603794046</v>
+        <v>0.0233051420009237</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2262978115408346</v>
+        <v>0.09949242570921869</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.430627540985773</v>
+        <v>0.17048469887393</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3399956770010534</v>
+        <v>0.1526602174796164</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>39.10217858102259</v>
+        <v>20.8639749867427</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -6169,23 +6169,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.1155970603794046</v>
+        <v>0.0548748226072627</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2262978115408345</v>
+        <v>0.1811024658773774</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>2.430627540985773</v>
+        <v>0.6252691097656474</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.3399956770010534</v>
+        <v>0.2342537568690474</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>39.10217858102259</v>
+        <v>31.77616228482158</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -6263,23 +6263,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5534899127337557</v>
+        <v>0.4470940432354544</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6863086270077073</v>
+        <v>0.6528308417876932</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.706450122857462</v>
+        <v>1.273154462964567</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7439690267301158</v>
+        <v>0.6686509128352809</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>174.0466344713495</v>
+        <v>166.6895180810677</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -6297,19 +6297,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.4011507566428459</v>
+        <v>0.1031632659481716</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.5791762014379676</v>
+        <v>0.2762649881811737</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.9336621884095294</v>
+        <v>0.5087490450662523</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.6333646316639775</v>
+        <v>0.3211903889411569</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>179.8392331733711</v>
+        <v>63.15279676305535</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -6841,53 +6841,53 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
+          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.0322709846941347</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.132541279743798</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.3061110023316115</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.179641266679276</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>25.27961198114551</v>
+      </c>
+      <c r="I20" s="9" t="inlineStr">
+        <is>
+          <t>XGBoost Regressor</t>
+        </is>
+      </c>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
           <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
-        <v>0.06362783685714821</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>0.1808081195065476</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>1.897694321842118</v>
-      </c>
-      <c r="G20" s="5" t="n">
-        <v>0.252245588379952</v>
-      </c>
-      <c r="H20" s="5" t="n">
-        <v>35.53449289946797</v>
-      </c>
-      <c r="I20" s="9" t="inlineStr">
-        <is>
-          <t>XGBoost Regressor</t>
-        </is>
-      </c>
-      <c r="J20" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K20" s="8" t="inlineStr">
-        <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
-        </is>
-      </c>
       <c r="L20" s="8" t="n">
-        <v>0.06456858301446498</v>
+        <v>0.0135137157582437</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1818092960285032</v>
+        <v>0.0935881657197573</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>1.917767001224504</v>
+        <v>0.2299802567800449</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.254103488788456</v>
+        <v>0.116248508628041</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>35.63043018181679</v>
+        <v>18.08197897733871</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -6989,19 +6989,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.05525246262550354</v>
+        <v>0.05525248</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1782428473234177</v>
+        <v>0.17824285</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3270565271377563</v>
+        <v>0.32705656</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2350584238556524</v>
+        <v>0.2350584634765467</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>44.71926391124725</v>
+        <v>44.71927285194397</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -7019,19 +7019,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.0431629903614521</v>
+        <v>0.043163005</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1689549684524536</v>
+        <v>0.16895501</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.5812313556671143</v>
+        <v>0.5812313</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2077570464784579</v>
+        <v>0.2077570823404422</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>29.11397218704224</v>
+        <v>29.11397814750672</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -7051,19 +7051,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04879990220069885</v>
+        <v>0.048799966</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1812812834978104</v>
+        <v>0.18128145</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2438994199037552</v>
+        <v>0.24389973</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.220906998985317</v>
+        <v>0.2209071423259871</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>28.68109941482544</v>
+        <v>28.68114411830902</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -7081,19 +7081,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.04165039584040642</v>
+        <v>0.041650303</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1780197471380234</v>
+        <v>0.17801948</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2580954730510712</v>
+        <v>0.25809497</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2040842861182762</v>
+        <v>0.2040840579470845</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>30.43054044246674</v>
+        <v>30.43046593666077</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -7113,19 +7113,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1959729790687561</v>
+        <v>0.19627735</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3282682001590729</v>
+        <v>0.3285206</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5465204119682312</v>
+        <v>0.5466418</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4426883543405633</v>
+        <v>0.4430319967985401</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>49.08547699451447</v>
+        <v>49.0749180316925</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -7143,19 +7143,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.06873234361410141</v>
+        <v>0.06915932</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2213720679283142</v>
+        <v>0.22123404</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.7638221979141235</v>
+        <v>0.7702484000000001</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2621685404736835</v>
+        <v>0.2629815991413656</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>43.71403455734253</v>
+        <v>43.60391795635224</v>
       </c>
     </row>
   </sheetData>
@@ -7453,19 +7453,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07218935291724661</v>
+        <v>0.0574484426410399</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2108970814093183</v>
+        <v>0.1882816998517704</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.014266557032996</v>
+        <v>0.6841986774185758</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2686807639509137</v>
+        <v>0.2396840475314116</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>40.57051994877986</v>
+        <v>33.70231028308675</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -7483,19 +7483,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.07218935291724661</v>
+        <v>0.0574484426410399</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2108970814093183</v>
+        <v>0.1882816998517704</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>2.014266557032996</v>
+        <v>0.6841986774185758</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2686807639509137</v>
+        <v>0.2396840475314116</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>40.57051994877986</v>
+        <v>33.70231028308675</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -7577,19 +7577,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>955.5692757260084</v>
+        <v>0.627731341219384</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>29.54611136861001</v>
+        <v>0.7551265348846475</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>136.2462712509559</v>
+        <v>1.508758971238557</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>30.91228357346005</v>
+        <v>0.7922949837146415</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>197.0485982628808</v>
+        <v>172.3734649963308</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -7603,23 +7603,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.2864323333653529</v>
+        <v>0.4485821873381502</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.4867730452625011</v>
+        <v>0.6530222802466226</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>1.053701294562961</v>
+        <v>1.312806319144036</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.5351937344227349</v>
+        <v>0.6697627843782828</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>131.0846433784488</v>
+        <v>173.9880291732326</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -8151,23 +8151,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.07459253796934666</v>
+        <v>0.0346550057163404</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2012325355259515</v>
+        <v>0.1468793173285139</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2.170364437195931</v>
+        <v>0.4411340860375944</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2731163451156789</v>
+        <v>0.1861585499415498</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>38.39955855623405</v>
+        <v>28.03631042276418</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -8181,23 +8181,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.06928826784797093</v>
+        <v>0.0306809246565359</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1941345669757389</v>
+        <v>0.1407754538653754</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>2.053979559994304</v>
+        <v>0.4173198736536639</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2632266472984278</v>
+        <v>0.1751597118533137</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>37.78580334243667</v>
+        <v>27.1359106192292</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -8299,19 +8299,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.05035349726676941</v>
+        <v>0.054266404</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1612139195203781</v>
+        <v>0.1643508</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.6506745219230652</v>
+        <v>0.6954567</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2243958494865032</v>
+        <v>0.2329515064568863</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>28.47699224948883</v>
+        <v>29.06841933727264</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -8329,19 +8329,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.08263567090034485</v>
+        <v>0.08263566999999999</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2550498843193054</v>
+        <v>0.25504988</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.6599308848381042</v>
+        <v>0.659931</v>
       </c>
       <c r="O22" s="8" t="n">
         <v>0.2874642080335304</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>50.17805695533752</v>
+        <v>50.17806887626648</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -8361,19 +8361,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.09688723087310791</v>
+        <v>0.09688723</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2333013564348221</v>
+        <v>0.23330136</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3601195812225342</v>
+        <v>0.3601196</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>0.3112671374769715</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>37.88994252681732</v>
+        <v>37.8899484872818</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -8391,19 +8391,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.1125778779387474</v>
+        <v>0.11257775</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2732068598270416</v>
+        <v>0.27320668</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.4736639261245728</v>
+        <v>0.4736638</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.3355262701171808</v>
+        <v>0.3355260813690602</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>64.76170420646667</v>
+        <v>64.76167440414429</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -8423,19 +8423,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1869.86474609375</v>
+        <v>1874.2689</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>36.42984008789062</v>
+        <v>36.471416</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>95.88897705078125</v>
+        <v>96.051346</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>43.24193272847261</v>
+        <v>43.29282759185911</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>197.4981188774109</v>
+        <v>197.4935412406921</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -8453,19 +8453,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.1621319055557251</v>
+        <v>0.16176201</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.3308967649936676</v>
+        <v>0.33080277</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.76921147108078</v>
+        <v>0.7480215</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.4026560636023319</v>
+        <v>0.402196486846181</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>60.68448424339294</v>
+        <v>59.72917079925537</v>
       </c>
     </row>
   </sheetData>
@@ -8759,53 +8759,53 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
+          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.054941935824394</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1742671616329206</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.5913019022349074</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2343969620630652</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>38.30989291765312</v>
+      </c>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Decision Tree Regressor</t>
+        </is>
+      </c>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
           <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
-      <c r="D9" s="5" t="n">
-        <v>0.07170041364602651</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>0.2107091491690027</v>
-      </c>
-      <c r="F9" s="5" t="n">
-        <v>2.065944132594187</v>
-      </c>
-      <c r="G9" s="5" t="n">
-        <v>0.2677693291735006</v>
-      </c>
-      <c r="H9" s="5" t="n">
-        <v>40.1675103959074</v>
-      </c>
-      <c r="I9" s="9" t="inlineStr">
-        <is>
-          <t>Decision Tree Regressor</t>
-        </is>
-      </c>
-      <c r="J9" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K9" s="8" t="inlineStr">
-        <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
-        </is>
-      </c>
       <c r="L9" s="8" t="n">
-        <v>0.07170041364602651</v>
+        <v>0.0643201539003513</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2107091491690027</v>
+        <v>0.1995994810239763</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>2.065944132594187</v>
+        <v>0.7862153435217103</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2677693291735006</v>
+        <v>0.2536141831608622</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>40.1675103959074</v>
+        <v>36.07352887796457</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -8887,19 +8887,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.295532519518154</v>
+        <v>4.856148257437738</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4491435872374246</v>
+        <v>1.908310063726872</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.029788667677403</v>
+        <v>3.957926863980529</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5436290274793594</v>
+        <v>2.203667002393451</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>104.6193402697233</v>
+        <v>169.8932544337554</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -8913,23 +8913,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.814827748451203</v>
+        <v>0.4345627203953818</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.3274625756345748</v>
+        <v>0.6381711116045667</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>2.47767168060615</v>
+        <v>1.2713448357123</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.9026780979126517</v>
+        <v>0.6592137137494803</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>44.6379885565304</v>
+        <v>171.6002944698398</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -9461,23 +9461,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.07722534864192244</v>
+        <v>0.0491021646579444</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2143188320209041</v>
+        <v>0.1700679364796354</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2.161192300807425</v>
+        <v>0.5580462983764821</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2778944919244036</v>
+        <v>0.2215900824900439</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>40.31086051537957</v>
+        <v>32.40303614734101</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -9495,19 +9495,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.07043426303888987</v>
+        <v>0.040995737213556</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.2088867204712537</v>
+        <v>0.161177399877307</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>2.036212223199693</v>
+        <v>0.5626223614664718</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2653945422176008</v>
+        <v>0.202474040838711</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>39.99898939137557</v>
+        <v>31.00560215559967</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -9609,19 +9609,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.06831707805395126</v>
+        <v>0.06800096</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.19488525390625</v>
+        <v>0.18421468</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.8272454738616943</v>
+        <v>0.809712</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.261375358543898</v>
+        <v>0.2607699318744482</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>33.01261961460114</v>
+        <v>31.5760225057602</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -9639,16 +9639,16 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.06211197003722191</v>
+        <v>0.062111977</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1948429346084595</v>
+        <v>0.1948429</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.4870802462100983</v>
+        <v>0.48708022</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2492227317826805</v>
+        <v>0.2492227467303145</v>
       </c>
       <c r="P22" s="8" t="n">
         <v>36.59928739070892</v>
@@ -9671,19 +9671,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03811018541455269</v>
+        <v>0.038110204</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1559692770242691</v>
+        <v>0.15596934</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2727319300174713</v>
+        <v>0.27273205</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1952183019456749</v>
+        <v>0.1952183496523935</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>25.27768909931183</v>
+        <v>25.27769804000854</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -9701,19 +9701,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.0282856673002243</v>
+        <v>0.028285662</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1282942891120911</v>
+        <v>0.12829427</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2180407494306564</v>
+        <v>0.2180407</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1681834334892242</v>
+        <v>0.1681834168766018</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>21.33505195379257</v>
+        <v>21.33504897356033</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -9733,19 +9733,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2729.345703125</v>
+        <v>2730.007</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>41.50910186767578</v>
+        <v>41.55785</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>90.96320343017578</v>
+        <v>91.04165999999999</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>52.24314024946241</v>
+        <v>52.24946966312792</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>194.30011510849</v>
+        <v>194.5955038070679</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -9763,19 +9763,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.2734960913658142</v>
+        <v>0.2735178</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.4065582454204559</v>
+        <v>0.40657455</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>1.143173575401306</v>
+        <v>1.1432265</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.5229685376442967</v>
+        <v>0.5229892804413036</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>57.29657411575317</v>
+        <v>57.29843378067017</v>
       </c>
     </row>
   </sheetData>
@@ -10069,23 +10069,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 30, 'max_features': 'sqrt', 'max_depth': 11, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8225046646275814</v>
+        <v>0.3358593909766639</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4586117223473177</v>
+        <v>0.3497250304654388</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6702562180506753</v>
+        <v>0.262176175531061</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9069204290496391</v>
+        <v>0.5795337703504981</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>22.09490071810012</v>
+        <v>15.8342721855699</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -10099,23 +10099,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.774834050773481</v>
+        <v>0.3358593909766639</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.489673810659532</v>
+        <v>0.3497250304654388</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.6588926423717774</v>
+        <v>0.262176175531061</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.8802465852097814</v>
+        <v>0.5795337703504981</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>23.50777126099691</v>
+        <v>15.8342721855699</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -10193,23 +10193,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6195085732710501</v>
+        <v>6.834698393679382</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4113219403596037</v>
+        <v>2.573067607381955</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5823654462610296</v>
+        <v>1.035434593559305</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7870886692559169</v>
+        <v>2.614325609727944</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>20.93027481957617</v>
+        <v>181.3593239720797</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -10223,23 +10223,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>9.340472955208856</v>
+        <v>5.320083144302092</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>2.862828497359032</v>
+        <v>2.238897767083045</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>1.226573069859986</v>
+        <v>0.9086841071449038</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>3.056218734843574</v>
+        <v>2.306530542677051</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>171.598903736907</v>
+        <v>145.23613617466</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -10771,23 +10771,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7036655444971238</v>
+        <v>0.1961551808507295</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3897079077393877</v>
+        <v>0.2794581297746167</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6189005702111535</v>
+        <v>0.1972482979749033</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.8388477481027912</v>
+        <v>0.4428940966537368</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>19.71786653546238</v>
+        <v>13.55202636492548</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -10801,23 +10801,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.7091811737057511</v>
+        <v>0.238561802160433</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.4074361402244974</v>
+        <v>0.3168753846898787</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.6241243150378889</v>
+        <v>0.2234456976231067</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.8421289531335157</v>
+        <v>0.4884278883933973</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>20.43960986822784</v>
+        <v>15.05743005939084</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -10919,19 +10919,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.305528312921524</v>
+        <v>0.3055286</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2610090970993042</v>
+        <v>0.26100963</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2376237511634827</v>
+        <v>0.23762392</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.5527461559536385</v>
+        <v>0.5527464255377396</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>12.4681755900383</v>
+        <v>12.46819049119949</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -10949,19 +10949,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.2727885544300079</v>
+        <v>0.23725678</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.3480747044086456</v>
+        <v>0.3219025</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2318527847528458</v>
+        <v>0.21610276</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.5222916373349357</v>
+        <v>0.4870901151396544</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>16.43076837062836</v>
+        <v>15.2109369635582</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -10981,19 +10981,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2696063816547394</v>
+        <v>0.26972446</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4266694188117981</v>
+        <v>0.42684108</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1520572751760483</v>
+        <v>0.15211913</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5192363446974214</v>
+        <v>0.5193500346163842</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>15.84304124116898</v>
+        <v>15.85094928741455</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -11011,19 +11011,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.138872355222702</v>
+        <v>0.13887233</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2855653166770935</v>
+        <v>0.28556532</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1039284467697144</v>
+        <v>0.10392843</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.3726558133488622</v>
+        <v>0.3726557733624687</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>11.31603568792343</v>
+        <v>11.31603270769119</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -11043,19 +11043,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3922826647758484</v>
+        <v>0.3911085</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5571367740631104</v>
+        <v>0.55444217</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.259478747844696</v>
+        <v>0.25690404</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6263247278974768</v>
+        <v>0.6253866906789894</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>25.12481808662415</v>
+        <v>25.02536773681641</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -11073,19 +11073,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>5.864223480224609</v>
+        <v>5.8157806</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>1.604598522186279</v>
+        <v>1.6341918</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.7691527009010315</v>
+        <v>0.7803585</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>2.421615882055742</v>
+        <v>2.411592967241453</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>45.61804831027985</v>
+        <v>46.76385819911957</v>
       </c>
     </row>
   </sheetData>
@@ -11383,19 +11383,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8105062543808967</v>
+        <v>0.3667775124604558</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4986723995204913</v>
+        <v>0.3721706215985295</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6866979874750219</v>
+        <v>0.2960864416258728</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9002812085014863</v>
+        <v>0.6056215918050278</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>24.00838771843201</v>
+        <v>17.07852875592023</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -11413,19 +11413,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.8105062543808967</v>
+        <v>0.3667775124604558</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.4986723995204913</v>
+        <v>0.3721706215985295</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.6866979874750219</v>
+        <v>0.2960864416258728</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.9002812085014863</v>
+        <v>0.6056215918050278</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>24.00838771843201</v>
+        <v>17.07852875592023</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -11503,23 +11503,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5914874014616793</v>
+        <v>30.1342933839086</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3834545523784266</v>
+        <v>4.43690718660562</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5883122745308804</v>
+        <v>2.065517581932936</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7690821812145171</v>
+        <v>5.489471138817344</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>19.96599083832854</v>
+        <v>131.2542961559826</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -11533,23 +11533,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>5.5191127889248</v>
+        <v>7.02552921484284</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>1.969809201262536</v>
+        <v>2.597372365764771</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.9529099718805701</v>
+        <v>1.049038333290083</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>2.349279206251313</v>
+        <v>2.650571488347907</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>99.42484034693199</v>
+        <v>180.2489774483833</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -12081,23 +12081,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5327141029899495</v>
+        <v>0.1497460330434818</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3947702528654066</v>
+        <v>0.2543499786359929</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.5225800557042285</v>
+        <v>0.183493234245783</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.7298726621746765</v>
+        <v>0.3869703257918905</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>21.36757744704979</v>
+        <v>12.39218513150971</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -12111,23 +12111,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.5589077579542292</v>
+        <v>0.2905823250660468</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.3964044282377961</v>
+        <v>0.3563513210093806</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.555486748873374</v>
+        <v>0.2196782942645448</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.7476013362442775</v>
+        <v>0.5390568848146241</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>21.41462523734774</v>
+        <v>17.68336139277875</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -12229,19 +12229,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.4886865019798279</v>
+        <v>0.4711325</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4480024576187134</v>
+        <v>0.43251857</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2777127921581268</v>
+        <v>0.2810699</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.6990611575390439</v>
+        <v>0.6863909141725577</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>24.20908212661743</v>
+        <v>23.3755886554718</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -12259,19 +12259,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.1983385533094406</v>
+        <v>0.4555374</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2642830908298492</v>
+        <v>0.3945394</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2038335800170898</v>
+        <v>0.32865542</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.4453521677385669</v>
+        <v>0.6749351143556814</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>13.0641981959343</v>
+        <v>17.48944669961929</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -12291,19 +12291,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5167998671531677</v>
+        <v>0.51679945</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5931604504585266</v>
+        <v>0.5931602</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.217577189207077</v>
+        <v>0.21757707</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.7188879378270078</v>
+        <v>0.7188876476339361</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>22.99617230892181</v>
+        <v>22.99616932868957</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -12321,19 +12321,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.3516899347305298</v>
+        <v>0.35168993</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.4729388058185577</v>
+        <v>0.47293887</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.171932190656662</v>
+        <v>0.17193222</v>
       </c>
       <c r="O23" s="8" t="n">
         <v>0.5930345139454615</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>19.05812174081802</v>
+        <v>19.05812472105026</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -12353,19 +12353,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4091.55517578125</v>
+        <v>4093.2036</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>51.11645126342773</v>
+        <v>51.12989</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>26.51654243469238</v>
+        <v>26.523432</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>63.96526538506074</v>
+        <v>63.97814949872534</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>187.0177626609802</v>
+        <v>187.0096325874329</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -12383,19 +12383,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>9.006056785583496</v>
+        <v>9.00389</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>2.130595445632935</v>
+        <v>2.1303322</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>1.026107311248779</v>
+        <v>1.0260519</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>3.00100929448469</v>
+        <v>3.000648269547203</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>79.39896583557129</v>
+        <v>79.39890027046204</v>
       </c>
     </row>
   </sheetData>
@@ -12693,19 +12693,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.808111189700239</v>
+        <v>0.4298435413725182</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4943536064078694</v>
+        <v>0.4031887841926556</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4153011710430879</v>
+        <v>0.358509749287132</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8989500485011606</v>
+        <v>0.6556245429912749</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>23.4394738819784</v>
+        <v>18.98306486779321</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -12723,19 +12723,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.808111189700239</v>
+        <v>0.4298435413725182</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.4943536064078694</v>
+        <v>0.4031887841926556</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.4153011710430879</v>
+        <v>0.358509749287132</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.8989500485011606</v>
+        <v>0.6556245429912749</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>23.4394738819784</v>
+        <v>18.98306486779321</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -12813,23 +12813,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7202761909187949</v>
+        <v>473.826248957332</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6432342740726111</v>
+        <v>18.33202450518653</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4055545200144645</v>
+        <v>8.231353569051313</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8486908688791196</v>
+        <v>21.76755036648203</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>32.76914650250325</v>
+        <v>165.8475827822227</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -12843,23 +12843,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 2000, 'loss': 'huber', 'learning_rate': 'optimal', 'l1_ratio': 0.15, 'fit_intercept': False, 'eta0': 0.01, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.6764735836640506</v>
+        <v>13.09688777657854</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.4567070392631716</v>
+        <v>3.028502444367241</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.3693947002023509</v>
+        <v>1.253135702407086</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.8224801418052904</v>
+        <v>3.618962251333736</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>22.99806716799528</v>
+        <v>139.6616491634083</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -13391,23 +13391,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5181555975227713</v>
+        <v>0.4710477791282136</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3396353456383959</v>
+        <v>0.4919167746636678</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2932546803788203</v>
+        <v>0.3510673639692811</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.719830256048446</v>
+        <v>0.6863292060871471</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>18.64790904102474</v>
+        <v>24.77137593958305</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -13421,23 +13421,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.6752001814624679</v>
+        <v>0.3271474990955866</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.4137450661064323</v>
+        <v>0.4096243055156553</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.347349920165334</v>
+        <v>0.2446588569005841</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.8217056537851422</v>
+        <v>0.5719680927250983</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>21.22796854926089</v>
+        <v>19.37024776489661</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -13539,19 +13539,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.4667840600013733</v>
+        <v>0.46678543</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4561758637428284</v>
+        <v>0.4561778</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3475871980190277</v>
+        <v>0.3475879</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.6832159687839368</v>
+        <v>0.6832169720580741</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>21.84979319572449</v>
+        <v>21.84988111257553</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -13569,19 +13569,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.5229655504226685</v>
+        <v>0.5229656</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.6156358122825623</v>
+        <v>0.6156359</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3594070971012115</v>
+        <v>0.3594071</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.7231635710008272</v>
+        <v>0.7231636122118654</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>30.36200404167175</v>
+        <v>30.36200404167176</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -13601,19 +13601,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4599463045597076</v>
+        <v>0.45994592</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5850081443786621</v>
+        <v>0.585008</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.235028937458992</v>
+        <v>0.23502904</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.678193412353517</v>
+        <v>0.6781931267194593</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>23.43026548624039</v>
+        <v>23.43026250600815</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -13631,19 +13631,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.3072546720504761</v>
+        <v>0.30725455</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.4280969798564911</v>
+        <v>0.42809686</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1669492125511169</v>
+        <v>0.16694915</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.5543055764201512</v>
+        <v>0.554305468889841</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>16.49506539106369</v>
+        <v>16.49506241083145</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -13663,19 +13663,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>19986.369140625</v>
+        <v>19984.828</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>128.3153839111328</v>
+        <v>128.31094</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>63.33684539794922</v>
+        <v>63.334736</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>141.3731556577309</v>
+        <v>141.3677053820992</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>191.3986563682556</v>
+        <v>191.3992524147034</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -13693,19 +13693,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>1.2673499584198</v>
+        <v>1.2673641</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.9763635993003845</v>
+        <v>0.97637224</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.4112981855869293</v>
+        <v>0.41130316</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>1.125766387142466</v>
+        <v>1.125772687679558</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>48.7383633852005</v>
+        <v>48.73890578746796</v>
       </c>
     </row>
   </sheetData>
@@ -13963,23 +13963,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04844702540556579</v>
+        <v>0.0133822032385697</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.174112410629967</v>
+        <v>0.0892146969245744</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3489182037358353</v>
+        <v>0.2696769977129626</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2201068499742018</v>
+        <v>0.115681473186374</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>27.08656660991536</v>
+        <v>18.67755851456853</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -14051,23 +14051,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02536946655075712</v>
+        <v>0.02371626712209</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1289953459847047</v>
+        <v>0.1201904505707597</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2298524518943416</v>
+        <v>0.3651333532045407</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1592779537499058</v>
+        <v>0.1540008672770711</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>20.41272209488118</v>
+        <v>23.02928456256153</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -14485,23 +14485,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02614704937423791</v>
+        <v>0.0222871352509976</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1273971246902029</v>
+        <v>0.1158021973985107</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2305546469491553</v>
+        <v>0.3747411459803486</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1617004928076532</v>
+        <v>0.1492887646509194</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>20.61518835772389</v>
+        <v>22.75198541444727</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -14615,16 +14615,16 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.04846378043293953</v>
+        <v>0.048463766</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1620772033929825</v>
+        <v>0.16207719</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5992954969406128</v>
+        <v>0.5992955599999999</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.220144907806062</v>
+        <v>0.220144873962076</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>27.58939564228058</v>
@@ -14659,19 +14659,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03773410245776176</v>
+        <v>0.037734114</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1607432067394257</v>
+        <v>0.16074324</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2132546007633209</v>
+        <v>0.21325465</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1942526768355118</v>
+        <v>0.1942527056018336</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>24.38617050647736</v>
+        <v>24.38617497682572</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -14703,19 +14703,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1373060047626495</v>
+        <v>0.14380096</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2923460602760315</v>
+        <v>0.30656156</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.127544045448303</v>
+        <v>1.1424515</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3705482488997209</v>
+        <v>0.3792109689751217</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>40.75675904750824</v>
+        <v>42.34173893928528</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -15025,19 +15025,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06088925984998305</v>
+        <v>0.0643201539003513</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1955811040767273</v>
+        <v>0.1995994810239763</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.6386735704534275</v>
+        <v>0.7862153435217103</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2467574919834919</v>
+        <v>0.2536141831608622</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>33.68024536253559</v>
+        <v>36.07352887796457</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -15055,19 +15055,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.06088925984998305</v>
+        <v>0.0643201539003513</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1955811040767273</v>
+        <v>0.1995994810239763</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.6386735704534275</v>
+        <v>0.7862153435217103</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2467574919834919</v>
+        <v>0.2536141831608622</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>33.68024536253559</v>
+        <v>36.07352887796457</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -15149,19 +15149,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0637280166488598</v>
+        <v>0.0427732743624461</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2013284867517215</v>
+        <v>0.1569033453848921</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6125720338185838</v>
+        <v>0.5798191839035012</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.252444086183178</v>
+        <v>0.2068170069468325</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>34.81281953161366</v>
+        <v>29.94404913812045</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -15179,19 +15179,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.06368538874593119</v>
+        <v>0.0426419279240698</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.2011464143052253</v>
+        <v>0.1568701123658386</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.6134264306329226</v>
+        <v>0.5803010600416667</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2523596416742011</v>
+        <v>0.2064992201536603</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>34.7746426112075</v>
+        <v>29.9422138023705</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -15727,19 +15727,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.06393246858625869</v>
+        <v>0.0402614835465552</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2023215040924541</v>
+        <v>0.1597825031271743</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6222207091567631</v>
+        <v>0.5747839477205693</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2528487069103947</v>
+        <v>0.2006526440058919</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>34.92991691559681</v>
+        <v>30.74871313000917</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -15757,19 +15757,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.063746056658398</v>
+        <v>0.0400444880626442</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.202074720994869</v>
+        <v>0.1604560857319266</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.6205803880156072</v>
+        <v>0.578207716947613</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2524798143582928</v>
+        <v>0.200111189248988</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>34.90168406747733</v>
+        <v>30.89984434424214</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -15871,19 +15871,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.02667167596518993</v>
+        <v>0.026671678</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.110722579061985</v>
+        <v>0.11072258</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5794224739074707</v>
+        <v>0.5794225</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1633146532470064</v>
+        <v>0.1633146589496334</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>23.40259701013565</v>
+        <v>23.40260148048401</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -15901,19 +15901,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.03200993686914444</v>
+        <v>0.032009926</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1401935517787933</v>
+        <v>0.14019352</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.5200661420822144</v>
+        <v>0.52006614</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.1789132104377551</v>
+        <v>0.1789131792050925</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>27.92114317417145</v>
+        <v>27.92113423347473</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -15933,19 +15933,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01825548335909843</v>
+        <v>0.01825548</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.09965411573648453</v>
+        <v>0.0996541</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2009916752576828</v>
+        <v>0.20099165</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1351128541593968</v>
+        <v>0.135112840373549</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>16.61876887083054</v>
+        <v>16.6187658905983</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -15963,19 +15963,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.0208135973662138</v>
+        <v>0.020813597</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1061495169997215</v>
+        <v>0.10614953</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1966146975755692</v>
+        <v>0.1966147</v>
       </c>
       <c r="O23" s="8" t="n">
         <v>0.1442691837025974</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>17.65582114458084</v>
+        <v>17.65582412481308</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -15995,19 +15995,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05691852793097496</v>
+        <v>0.05693663</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1697905659675598</v>
+        <v>0.16987406</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8091588616371155</v>
+        <v>0.8088869</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2385760422401524</v>
+        <v>0.2386139751073586</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>31.11511468887329</v>
+        <v>31.13303184509277</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -16025,19 +16025,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.05711556971073151</v>
+        <v>0.057110537</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1855604350566864</v>
+        <v>0.18555073</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.7554565668106079</v>
+        <v>0.7554272</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2389886392921879</v>
+        <v>0.2389781095488419</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>34.40442085266113</v>
+        <v>34.40296053886414</v>
       </c>
     </row>
   </sheetData>
@@ -16299,19 +16299,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05333434849253286</v>
+        <v>0.0574484426410399</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1836392004221472</v>
+        <v>0.1882816998517704</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5090276832651499</v>
+        <v>0.6841986774185758</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2309423055495308</v>
+        <v>0.2396840475314116</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>30.73537468940822</v>
+        <v>33.70231028308675</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -16383,23 +16383,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06057648195148523</v>
+        <v>0.0293866230738078</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1927405706860295</v>
+        <v>0.1315704856011837</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4663006971677146</v>
+        <v>0.2908052302712825</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2461229000956336</v>
+        <v>0.1714252696477617</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>34.95884950860702</v>
+        <v>22.61690818038724</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -16817,23 +16817,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05708941605315767</v>
+        <v>0.0189207331776887</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1903011759666142</v>
+        <v>0.1026059930838736</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.49430443567581</v>
+        <v>0.3656835680199047</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2389339156611252</v>
+        <v>0.1375526560183</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>31.93584028500944</v>
+        <v>19.96311955168104</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -16947,16 +16947,16 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.0558922216296196</v>
+        <v>0.05589221</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1755674928426743</v>
+        <v>0.17556748</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.7674189805984497</v>
+        <v>0.76741886</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.236415358277798</v>
+        <v>0.2364153346417036</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>31.29003345966339</v>
@@ -16991,19 +16991,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.07504792511463165</v>
+        <v>0.07504791</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2146532982587814</v>
+        <v>0.21465328</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3022552728652954</v>
+        <v>0.30225533</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2739487636669157</v>
+        <v>0.2739487364699287</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>32.63241052627563</v>
+        <v>32.63241350650787</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -17035,19 +17035,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.09149672836065292</v>
+        <v>0.09301802000000001</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2105058431625366</v>
+        <v>0.21285471</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9470428824424744</v>
+        <v>0.9544276</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3024842613437151</v>
+        <v>0.3049885534069356</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>33.69086682796478</v>
+        <v>33.95515084266663</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -17321,19 +17321,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06088925984998305</v>
+        <v>0.0643201539003513</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1955811040767273</v>
+        <v>0.1995994810239763</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6386735704534275</v>
+        <v>0.7862153435217103</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2467574919834919</v>
+        <v>0.2536141831608622</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>33.68024536253559</v>
+        <v>36.07352887796457</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -17405,23 +17405,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06561565677411951</v>
+        <v>14975248261138.28</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2052646640839024</v>
+        <v>3230275.127508262</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6072207710339054</v>
+        <v>9330803.232656814</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2561555323902248</v>
+        <v>3869786.591162138</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>35.56972534234276</v>
+        <v>199.9987729905061</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -17839,23 +17839,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.0742818899485907</v>
+        <v>0.0351420107388828</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2228793048104842</v>
+        <v>0.1425004717923299</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6057930076902629</v>
+        <v>0.5913823342323581</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2725470417168213</v>
+        <v>0.1874620247913769</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>39.02417634961298</v>
+        <v>27.97667318137847</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -17969,19 +17969,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.03843767568469048</v>
+        <v>0.038437676</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1599231213331223</v>
+        <v>0.1599231</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5279444456100464</v>
+        <v>0.52794445</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.1960552873163345</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>32.6576828956604</v>
+        <v>32.65767693519592</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -18013,19 +18013,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1399537771940231</v>
+        <v>0.13995375</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.290338009595871</v>
+        <v>0.290338</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4318892955780029</v>
+        <v>0.4318893</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3741039657555412</v>
+        <v>0.3741039259239346</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>48.80652129650116</v>
+        <v>48.80651533603668</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -18057,19 +18057,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5918488502502441</v>
+        <v>0.6000147</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6537049412727356</v>
+        <v>0.6582794</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.292373895645142</v>
+        <v>2.3084965</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7693171324299519</v>
+        <v>0.7746061493329837</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>69.21542882919312</v>
+        <v>69.46766972541809</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -18343,19 +18343,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1665199396186878</v>
+        <v>0.3358593909766639</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2819851710152386</v>
+        <v>0.3497250304654388</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.130436080137935</v>
+        <v>0.262176175531061</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4080685476959574</v>
+        <v>0.5795337703504981</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>11.19906587001983</v>
+        <v>15.8342721855699</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -18431,19 +18431,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2430469984732183</v>
+        <v>0.3587983486372354</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4032224323366004</v>
+        <v>0.4699749265254668</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1643346364862022</v>
+        <v>0.2765377593824943</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4929979700497948</v>
+        <v>0.598997786838345</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>16.00940142304688</v>
+        <v>20.87903889936202</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -18865,19 +18865,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4477006866062762</v>
+        <v>0.2991029347427453</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.4701975856184271</v>
+        <v>0.3911960482880187</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1766949606806289</v>
+        <v>0.2323325420691679</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.6691043914115915</v>
+        <v>0.5469030396173945</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>22.21138085684571</v>
+        <v>18.17129057117548</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -18991,19 +18991,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.34344482421875</v>
+        <v>0.34344494</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3515036106109619</v>
+        <v>0.3515038</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2693316042423248</v>
+        <v>0.26933163</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.5860416574090531</v>
+        <v>0.586041759116225</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>16.1979079246521</v>
+        <v>16.19792133569717</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -19035,19 +19035,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2601692676544189</v>
+        <v>0.26016927</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.372592031955719</v>
+        <v>0.372592</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1307557225227356</v>
+        <v>0.13075572</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>0.5100679049444485</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>14.64934051036835</v>
+        <v>14.64933902025223</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -19079,19 +19079,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.353112667798996</v>
+        <v>0.3216999</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3549577593803406</v>
+        <v>0.37634584</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2704396545886993</v>
+        <v>0.26266924</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5942328397177288</v>
+        <v>0.5671859373381135</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>16.02131873369217</v>
+        <v>17.23280102014542</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -19365,19 +19365,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2596840165691064</v>
+        <v>0.3667775124604558</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3292895567667161</v>
+        <v>0.3721706215985295</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2067857154789246</v>
+        <v>0.2960864416258728</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5095920099148988</v>
+        <v>0.6056215918050278</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>14.11028569766919</v>
+        <v>17.07852875592023</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -19453,19 +19453,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3087297696002327</v>
+        <v>0.3912988625828502</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4407114602067297</v>
+        <v>0.4922839336699511</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2248796170086048</v>
+        <v>0.3017832153383454</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5556345647997727</v>
+        <v>0.6255388577721214</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>18.69662517577272</v>
+        <v>22.25803651717509</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -19883,23 +19883,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5096170074984577</v>
+        <v>0.7299118286292748</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.5019804453258288</v>
+        <v>0.5470983484101658</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2018782126113309</v>
+        <v>0.2931812890700928</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.7138746441066931</v>
+        <v>0.8543487745817131</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>24.45093835175297</v>
+        <v>29.17682163639401</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -20013,16 +20013,16 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.5123231410980225</v>
+        <v>0.5123232</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.407505601644516</v>
+        <v>0.40750563</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3438276648521423</v>
+        <v>0.34382766</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.7157675188900531</v>
+        <v>0.7157675605269264</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>17.78221428394318</v>
@@ -20057,19 +20057,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.182419091463089</v>
+        <v>0.18241906</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3362756967544556</v>
+        <v>0.33627573</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1219840422272682</v>
+        <v>0.12198404</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.4271054804882384</v>
+        <v>0.4271054455995224</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>12.9002645611763</v>
+        <v>12.90026605129242</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -20101,19 +20101,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3921736776828766</v>
+        <v>0.39577475</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3454463481903076</v>
+        <v>0.34657916</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.298090398311615</v>
+        <v>0.29925224</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6262377165924108</v>
+        <v>0.6291063120821684</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>15.99870175123215</v>
+        <v>16.03027284145355</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -20387,19 +20387,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.341187436246534</v>
+        <v>0.4298435413725182</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3682248017734828</v>
+        <v>0.4031887841926556</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2680821073384063</v>
+        <v>0.358509749287132</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5841125201932706</v>
+        <v>0.6556245429912749</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>16.48242223288885</v>
+        <v>18.98306486779321</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -20475,19 +20475,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3745902052376652</v>
+        <v>0.4358988466050142</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4747498682002403</v>
+        <v>0.5139957661632701</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2808915309624448</v>
+        <v>0.3549924746589138</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6120377482130209</v>
+        <v>0.6602263601258391</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>20.91541012115851</v>
+        <v>23.83819975450275</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -20905,23 +20905,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8449768924309784</v>
+        <v>0.8129410175192945</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7982986733160908</v>
+        <v>0.6498701668639106</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3499796021471778</v>
+        <v>0.3822679600536056</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9192262465960045</v>
+        <v>0.9016324181834272</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>38.04608229294269</v>
+        <v>32.17697173802855</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -21035,19 +21035,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.5113843679428101</v>
+        <v>0.5113842</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4949278831481934</v>
+        <v>0.49492773</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3998444080352783</v>
+        <v>0.39984435</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.7151114374297268</v>
+        <v>0.7151113124044925</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>21.84799611568451</v>
+        <v>21.84799164533615</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -21079,13 +21079,13 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4717147350311279</v>
+        <v>0.47171474</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5876515507698059</v>
+        <v>0.58765155</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.223954513669014</v>
+        <v>0.22395454</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>0.6868149205070664</v>
@@ -21123,19 +21123,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7881481647491455</v>
+        <v>0.7999305</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6159915328025818</v>
+        <v>0.6231548</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4939538538455963</v>
+        <v>0.4978074</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8877770918136746</v>
+        <v>0.8943883456894555</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>25.27909874916077</v>
+        <v>25.48864781856537</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -21445,19 +21445,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05333434849253286</v>
+        <v>0.0574484426410399</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1836392004221472</v>
+        <v>0.1882816998517704</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5090276832651499</v>
+        <v>0.6841986774185758</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2309423055495308</v>
+        <v>0.2396840475314116</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>30.73537468940822</v>
+        <v>33.70231028308675</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -21475,19 +21475,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.05333434849253286</v>
+        <v>0.0574484426410399</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1836392004221472</v>
+        <v>0.1882816998517704</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.5090276832651499</v>
+        <v>0.6841986774185758</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2309423055495308</v>
+        <v>0.2396840475314116</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>30.73537468940822</v>
+        <v>33.70231028308675</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -21569,19 +21569,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04498262517619675</v>
+        <v>0.0358354037344274</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1663842819618105</v>
+        <v>0.1436889304853026</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4387587910397633</v>
+        <v>0.4786104721324494</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2120910775497092</v>
+        <v>0.1893024134405779</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>28.1873630276819</v>
+        <v>27.16478504858071</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -21599,19 +21599,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.04529062390494942</v>
+        <v>0.0358464959702205</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1668087025047905</v>
+        <v>0.1438940578108717</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.4394200363341286</v>
+        <v>0.4788622929832058</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2128159390293627</v>
+        <v>0.1893317088345758</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>28.25359808092965</v>
+        <v>27.19693348270749</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -22143,23 +22143,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05212100598891214</v>
+        <v>0.0116511953980656</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1840919190560389</v>
+        <v>0.08697321206201709</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.4952628507589047</v>
+        <v>0.1831006481155749</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2283002540272615</v>
+        <v>0.1079407031571764</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>30.93915709824838</v>
+        <v>16.0426890912069</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -22173,23 +22173,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.05161852308464918</v>
+        <v>0.0145066445858047</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1831127872821404</v>
+        <v>0.097572605047482</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.4932135413664528</v>
+        <v>0.2069753199999122</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2271971018403386</v>
+        <v>0.1204435327686993</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>30.79369421920884</v>
+        <v>17.82903380637263</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -22291,13 +22291,13 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.02417134679853916</v>
+        <v>0.024171347</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1062428578734398</v>
+        <v>0.10624286</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4698083400726318</v>
+        <v>0.46980828</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.1554713697068986</v>
@@ -22321,16 +22321,16 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.03609697893261909</v>
+        <v>0.036096983</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1284173429012299</v>
+        <v>0.12841734</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.5594591498374939</v>
+        <v>0.5594592</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.1899920496563451</v>
+        <v>0.1899920594601505</v>
       </c>
       <c r="P22" s="8" t="n">
         <v>24.83157813549042</v>
@@ -22353,19 +22353,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01825929246842861</v>
+        <v>0.018259283</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.105899266898632</v>
+        <v>0.10589927</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1503221690654755</v>
+        <v>0.15032215</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1351269494528335</v>
+        <v>0.1351269149918063</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>16.11514389514923</v>
+        <v>16.11514240503311</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -22383,19 +22383,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.01317037176340818</v>
+        <v>0.013172095</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.09405615925788879</v>
+        <v>0.09406026000000001</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1329722851514816</v>
+        <v>0.13298227</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1147622401463486</v>
+        <v>0.1147697464934519</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>13.86737823486328</v>
+        <v>13.86835277080536</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -22415,19 +22415,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04856796190142632</v>
+        <v>0.04858647</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1402158886194229</v>
+        <v>0.14023311</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6942787766456604</v>
+        <v>0.69440055</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2203814009879834</v>
+        <v>0.2204233861087091</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>26.03458166122437</v>
+        <v>26.03609561920166</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -22445,19 +22445,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.0439605712890625</v>
+        <v>0.04396416</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1396734863519669</v>
+        <v>0.1397024</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.6528170704841614</v>
+        <v>0.6528559</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2096677640674944</v>
+        <v>0.209676318986241</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>26.20093822479248</v>
+        <v>26.20473504066468</v>
       </c>
     </row>
   </sheetData>
@@ -22755,19 +22755,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1665199396186878</v>
+        <v>0.3358593909766639</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2819851710152386</v>
+        <v>0.3497250304654388</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.130436080137935</v>
+        <v>0.262176175531061</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4080685476959574</v>
+        <v>0.5795337703504981</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>11.19906587001983</v>
+        <v>15.8342721855699</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -22785,19 +22785,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.1665199396186878</v>
+        <v>0.3358593909766639</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2819851710152386</v>
+        <v>0.3497250304654388</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.130436080137935</v>
+        <v>0.262176175531061</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.4080685476959574</v>
+        <v>0.5795337703504981</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>11.19906587001983</v>
+        <v>15.8342721855699</v>
       </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
@@ -22879,19 +22879,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2412779886315264</v>
+        <v>0.3681974908702228</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4013120152141934</v>
+        <v>0.4751521430451176</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1634010458523087</v>
+        <v>0.2795184471348143</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4912005584601126</v>
+        <v>0.6067927907203766</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>15.92363721809781</v>
+        <v>21.05882244579879</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -22909,19 +22909,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.2413292993498781</v>
+        <v>0.3681701297360611</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.4013684726077111</v>
+        <v>0.4750936914415086</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.16342177234718</v>
+        <v>0.2794881304707459</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.4912527855899426</v>
+        <v>0.6067702446033928</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>15.92590900113033</v>
+        <v>21.0564784400197</v>
       </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
@@ -23457,19 +23457,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04982518368577771</v>
+        <v>0.169795587058847</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1763575984615251</v>
+        <v>0.2385514371374274</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.07062406243941582</v>
+        <v>0.1791915844303312</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.22321555430968</v>
+        <v>0.4120626008980275</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>6.999639011789824</v>
+        <v>11.88477524796455</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -23483,23 +23483,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.05514362045318578</v>
+        <v>0.1381214895584666</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1825278557396358</v>
+        <v>0.2374592774816027</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.07403069327777476</v>
+        <v>0.1689726061103696</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2348267881933102</v>
+        <v>0.3716469958959262</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>7.281318783033394</v>
+        <v>11.85128449727983</v>
       </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
@@ -23601,16 +23601,16 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.5824483633041382</v>
+        <v>0.58244824</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.5772866606712341</v>
+        <v>0.57728654</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3756519854068756</v>
+        <v>0.37565193</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.7631830470497482</v>
+        <v>0.7631829689496803</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>22.89145737886429</v>
@@ -23631,19 +23631,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.6759921908378601</v>
+        <v>0.6759857</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.6116144061088562</v>
+        <v>0.6116092</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.4024993777275085</v>
+        <v>0.40249708</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.8221874426417981</v>
+        <v>0.8221834916437933</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>23.89399111270905</v>
+        <v>23.89383167028427</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -23663,19 +23663,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.09325094521045685</v>
+        <v>0.093250945</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2340789139270782</v>
+        <v>0.23407891</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.08157013356685638</v>
+        <v>0.08157012600000001</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>0.3053701773429371</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>8.720821887254715</v>
+        <v>8.720821142196655</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -23693,19 +23693,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.1364782154560089</v>
+        <v>0.13647811</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.283723920583725</v>
+        <v>0.28372377</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.0971326157450676</v>
+        <v>0.09713256000000001</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.369429581187009</v>
+        <v>0.3694294400124069</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>10.54743081331253</v>
+        <v>10.54742485284805</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -23725,19 +23725,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4079862534999847</v>
+        <v>0.40798908</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5522608160972595</v>
+        <v>0.55226356</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3014162480831146</v>
+        <v>0.30141702</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6387380163259305</v>
+        <v>0.638740232583334</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>24.41780418157578</v>
+        <v>24.41792488098145</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -23755,19 +23755,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.5372534394264221</v>
+        <v>0.5373089</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.6670684218406677</v>
+        <v>0.66710806</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.3378023207187653</v>
+        <v>0.3378208</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.7329757427271534</v>
+        <v>0.733013554953838</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>29.58830595016479</v>
+        <v>29.59031164646149</v>
       </c>
     </row>
     <row r="25" ht="30.75" customHeight="1"/>
@@ -24066,19 +24066,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.341187436246534</v>
+        <v>0.4298435413725182</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3682248017734828</v>
+        <v>0.4031887841926556</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2680821073384063</v>
+        <v>0.358509749287132</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5841125201932706</v>
+        <v>0.6556245429912749</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>16.48242223288885</v>
+        <v>18.98306486779321</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -24096,19 +24096,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.341187436246534</v>
+        <v>0.4298435413725182</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.3682248017734828</v>
+        <v>0.4031887841926556</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.2680821073384063</v>
+        <v>0.358509749287132</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.5841125201932706</v>
+        <v>0.6556245429912749</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>16.48242223288885</v>
+        <v>18.98306486779321</v>
       </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
@@ -24190,19 +24190,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.369821368873765</v>
+        <v>0.4433434098267608</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.471291591671966</v>
+        <v>0.5215140421112961</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2801640429115404</v>
+        <v>0.3606194018824535</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6081294014219055</v>
+        <v>0.665840378639476</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>20.75780447667754</v>
+        <v>24.07630759843517</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -24220,19 +24220,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.3697838255679851</v>
+        <v>0.4434962786692895</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.4712838879533359</v>
+        <v>0.5217315660569614</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.2801605055929167</v>
+        <v>0.3606994745201232</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.6080985327790103</v>
+        <v>0.6659551626568334</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>20.75751128083969</v>
+        <v>24.08546515700741</v>
       </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
@@ -24764,23 +24764,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2274567910782083</v>
+        <v>0.1985719919028349</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3308859742486649</v>
+        <v>0.272132707933113</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2101287771409261</v>
+        <v>0.2280923993846133</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.4769243033000188</v>
+        <v>0.4456141738127671</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>15.24628342705663</v>
+        <v>14.37422427258866</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -24794,23 +24794,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.2326627808264381</v>
+        <v>0.1821575903086596</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.3411129747588755</v>
+        <v>0.2898332935976004</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.1953398050935196</v>
+        <v>0.2140512972283016</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.4823513043689611</v>
+        <v>0.4267992388801315</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>16.19391942637874</v>
+        <v>15.25596995446757</v>
       </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
@@ -24912,19 +24912,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.9797229170799255</v>
+        <v>0.97972304</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.6593546271324158</v>
+        <v>0.65935457</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5357252955436707</v>
+        <v>0.5357253</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.9898095357592417</v>
+        <v>0.989809595977537</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>26.39839351177216</v>
+        <v>26.39839053153992</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -24942,19 +24942,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.6579883694648743</v>
+        <v>0.6579884</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.5571760535240173</v>
+        <v>0.5571761</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.4594224691390991</v>
+        <v>0.4594225</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.8111648226253863</v>
+        <v>0.8111648593655417</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>23.60033839941025</v>
+        <v>23.60034137964249</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -24974,19 +24974,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4524567127227783</v>
+        <v>0.45246938</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6068525910377502</v>
+        <v>0.60686016</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2333554178476334</v>
+        <v>0.23335882</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.6726490264043934</v>
+        <v>0.6726584413428506</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>25.11434555053711</v>
+        <v>25.11469125747681</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -25004,13 +25004,13 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.1386453360319138</v>
+        <v>0.13864534</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2852579057216644</v>
+        <v>0.2852579</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1171780899167061</v>
+        <v>0.11717808</v>
       </c>
       <c r="O23" s="8" t="n">
         <v>0.3723510924274478</v>
@@ -25036,19 +25036,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7460894584655762</v>
+        <v>0.74607056</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5879611372947693</v>
+        <v>0.58794177</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4814437031745911</v>
+        <v>0.48143563</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8637647008679946</v>
+        <v>0.8637537634031949</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>24.52141791582108</v>
+        <v>24.52083975076676</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -25066,19 +25066,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.6069698333740234</v>
+        <v>0.6069485</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.7015844583511353</v>
+        <v>0.7015709999999999</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.4037765860557556</v>
+        <v>0.40377015</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.7790826871225053</v>
+        <v>0.779068992394893</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>32.37913548946381</v>
+        <v>32.37852454185486</v>
       </c>
     </row>
     <row r="25" ht="30.75" customHeight="1"/>
@@ -25377,19 +25377,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2596840165691064</v>
+        <v>0.3667775124604558</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3292895567667161</v>
+        <v>0.3721706215985295</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2067857154789246</v>
+        <v>0.2960864416258728</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5095920099148988</v>
+        <v>0.6056215918050278</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>14.11028569766919</v>
+        <v>17.07852875592023</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -25407,19 +25407,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.2596840165691064</v>
+        <v>0.3667775124604558</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.3292895567667161</v>
+        <v>0.3721706215985295</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.2067857154789246</v>
+        <v>0.2960864416258728</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.5095920099148988</v>
+        <v>0.6056215918050278</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>14.11028569766919</v>
+        <v>17.07852875592023</v>
       </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
@@ -25501,19 +25501,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3091441593451917</v>
+        <v>0.3934270673980485</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4387869205438372</v>
+        <v>0.4930762063549288</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2272397852667329</v>
+        <v>0.3065652526945248</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5560073374922239</v>
+        <v>0.6272376482626411</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>18.56598022614222</v>
+        <v>22.19376622279007</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -25531,19 +25531,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.3090236082782473</v>
+        <v>0.393386992611102</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.4387664406753416</v>
+        <v>0.4930518095147349</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.2271983807772823</v>
+        <v>0.3065862460377758</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.5558989191195171</v>
+        <v>0.6272057019918601</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>18.56544743932298</v>
+        <v>22.19254025430957</v>
       </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
@@ -26075,23 +26075,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1378313647316607</v>
+        <v>0.2090202604937167</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2382578672145039</v>
+        <v>0.2555729179706781</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1480181106568789</v>
+        <v>0.2191613635296544</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3712564675957319</v>
+        <v>0.457187336322559</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>10.96561344995355</v>
+        <v>12.81037840540587</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -26105,23 +26105,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.1627304111003115</v>
+        <v>0.1375764272934761</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.2664829760174411</v>
+        <v>0.2037158634054739</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.1610694570878625</v>
+        <v>0.1790035135502764</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.4033985759770497</v>
+        <v>0.370912964579935</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>12.14660284098473</v>
+        <v>11.08103662410251</v>
       </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
@@ -26223,19 +26223,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.6369786262512207</v>
+        <v>0.6369786</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.6303176879882812</v>
+        <v>0.63031775</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4195170998573303</v>
+        <v>0.41951713</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.7981094074443809</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>25.05511939525604</v>
+        <v>25.05512237548828</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -26253,19 +26253,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.6490601301193237</v>
+        <v>0.64906025</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.5646895170211792</v>
+        <v>0.5646895</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.4105493426322937</v>
+        <v>0.4105494</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.8056426814161001</v>
+        <v>0.8056427554000677</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>22.82069325447083</v>
+        <v>22.8206992149353</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -26285,19 +26285,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.09906755387783051</v>
+        <v>0.09906756</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2435831874608994</v>
+        <v>0.24358319</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.08946259319782257</v>
+        <v>0.08946258999999999</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3147499863031459</v>
+        <v>0.3147499981388579</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>9.168180823326111</v>
+        <v>9.168181568384171</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -26315,19 +26315,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.1349289566278458</v>
+        <v>0.134929</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2765712440013885</v>
+        <v>0.2765713</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.09929819405078888</v>
+        <v>0.09929822000000001</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.3673267709109231</v>
+        <v>0.367326831760667</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>10.78163981437683</v>
+        <v>10.78164204955101</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -26347,19 +26347,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3788153827190399</v>
+        <v>0.3788099</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3074007928371429</v>
+        <v>0.30739555</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2854602038860321</v>
+        <v>0.28545704</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6154797987903745</v>
+        <v>0.6154753440160869</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>14.63488340377808</v>
+        <v>14.63468968868256</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -26377,19 +26377,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.6389245986938477</v>
+        <v>0.5876990600000001</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.743738055229187</v>
+        <v>0.7136065</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.3694278001785278</v>
+        <v>0.35966176</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.7993275916004949</v>
+        <v>0.7666153244435516</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>33.66389572620392</v>
+        <v>32.26243853569031</v>
       </c>
     </row>
     <row r="25" ht="30.75" customHeight="1"/>
@@ -26690,19 +26690,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04844702540556579</v>
+        <v>0.0548748226072627</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.174112410629967</v>
+        <v>0.1811024658773774</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.3489182037358353</v>
+        <v>0.6252691097656474</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2201068499742018</v>
+        <v>0.2342537568690474</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>27.08656660991536</v>
+        <v>31.77616228482158</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -26720,19 +26720,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.04844702540556579</v>
+        <v>0.0548748226072627</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.174112410629967</v>
+        <v>0.1811024658773774</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.3489182037358353</v>
+        <v>0.6252691097656474</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2201068499742018</v>
+        <v>0.2342537568690474</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>27.08656660991536</v>
+        <v>31.77616228482158</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -26814,19 +26814,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05243791205944026</v>
+        <v>0.0579619829638012</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1801270936028938</v>
+        <v>0.1891066058602489</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3424610278551638</v>
+        <v>0.6001682869669941</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2289932576724482</v>
+        <v>0.2407529500625097</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>28.10828176449768</v>
+        <v>33.31829961248793</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -26844,19 +26844,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.05244061884963863</v>
+        <v>0.0579408289635597</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1801410431794207</v>
+        <v>0.1890122013647947</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.3424675415874282</v>
+        <v>0.5999925213984697</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2289991677924587</v>
+        <v>0.2407090130501135</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>28.11067453546853</v>
+        <v>33.30267913441984</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -27392,19 +27392,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.0518938025516044</v>
+        <v>0.06275421552665821</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1811032125607424</v>
+        <v>0.1973263249370749</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3343177626604485</v>
+        <v>0.6184302791775271</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2278021127022407</v>
+        <v>0.2505079150978232</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>28.37041589990471</v>
+        <v>34.60497394608187</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -27418,23 +27418,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.05332242868306164</v>
+        <v>0.0562873690758327</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1816258364521582</v>
+        <v>0.1840708778242743</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.3453322876362733</v>
+        <v>0.6379430389967757</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.23091649720854</v>
+        <v>0.237249592361784</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>28.3402665347294</v>
+        <v>32.22670004957394</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.06829185783863068</v>
+        <v>0.06829186</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2153118550777435</v>
+        <v>0.21531188</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.6235907673835754</v>
+        <v>0.6235908</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.2613271088858381</v>
@@ -27566,19 +27566,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.3352261483669281</v>
+        <v>0.33522624</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.5356122255325317</v>
+        <v>0.5356123</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.7703486084938049</v>
+        <v>0.7703486</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.5789871746135039</v>
+        <v>0.5789872518232981</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>128.4412026405334</v>
+        <v>128.4412264823914</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -27598,19 +27598,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02944556437432766</v>
+        <v>0.029445555</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.148386538028717</v>
+        <v>0.14838651</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2199434787034988</v>
+        <v>0.21994348</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1715970989682741</v>
+        <v>0.1715970718313745</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>20.65210789442062</v>
+        <v>20.6521064043045</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -27628,19 +27628,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.02444582805037498</v>
+        <v>0.024445828</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1305224448442459</v>
+        <v>0.13052244</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1865833252668381</v>
+        <v>0.18658333</v>
       </c>
       <c r="O23" s="8" t="n">
         <v>0.1563516167181362</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>18.19324046373367</v>
+        <v>18.19323897361756</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -27660,19 +27660,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05458203703165054</v>
+        <v>0.054581113</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1804497390985489</v>
+        <v>0.18044671</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6074262857437134</v>
+        <v>0.60742897</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2336279885451453</v>
+        <v>0.2336260113079374</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>31.81383311748505</v>
+        <v>31.81319236755371</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -27690,19 +27690,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.06280748546123505</v>
+        <v>0.06266995</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1935556679964066</v>
+        <v>0.19334151</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.7635646462440491</v>
+        <v>0.7624313</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2506142163989007</v>
+        <v>0.250339664742557</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>32.61074125766754</v>
+        <v>32.58684277534485</v>
       </c>
     </row>
   </sheetData>
@@ -28004,19 +28004,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06088925984998305</v>
+        <v>0.0643201539003513</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1955811040767273</v>
+        <v>0.1995994810239763</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.6386735704534275</v>
+        <v>0.7862153435217103</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2467574919834919</v>
+        <v>0.2536141831608622</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>33.68024536253559</v>
+        <v>36.07352887796457</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -28034,19 +28034,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.06088925984998305</v>
+        <v>0.0643201539003513</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1955811040767273</v>
+        <v>0.1995994810239763</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.6386735704534275</v>
+        <v>0.7862153435217103</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2467574919834919</v>
+        <v>0.2536141831608622</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>33.68024536253559</v>
+        <v>36.07352887796457</v>
       </c>
     </row>
     <row r="10">
@@ -28128,19 +28128,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06316102908615802</v>
+        <v>0.0666858327639068</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2004626074277202</v>
+        <v>0.2076956303857609</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.609058959195432</v>
+        <v>0.7472848101074109</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2513185808613402</v>
+        <v>0.2582360020676956</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>34.68710238837169</v>
+        <v>37.73406520930857</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -28158,19 +28158,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.0631356382532131</v>
+        <v>0.0666870995879229</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.2004086040533856</v>
+        <v>0.2076946631816428</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.6088736089791105</v>
+        <v>0.7471820908936214</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2512680605513026</v>
+        <v>0.2582384548976448</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>34.67915800431527</v>
+        <v>37.73452396635511</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -28706,19 +28706,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.06436263094966592</v>
+        <v>0.06673818975366699</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2024447274118647</v>
+        <v>0.2109335977680787</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6147466141784622</v>
+        <v>0.7364158213827443</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2536979127814534</v>
+        <v>0.2583373564811467</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>34.98042106850195</v>
+        <v>38.4400679129829</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -28732,23 +28732,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.06436263094966592</v>
+        <v>0.0647297038670141</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.2024447274118647</v>
+        <v>0.1972284092848457</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.6147466141784622</v>
+        <v>0.8801237280360098</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2536979127814534</v>
+        <v>0.2544203291150573</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>34.98042106850195</v>
+        <v>34.93979596719839</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -28850,19 +28850,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.06472088396549225</v>
+        <v>0.06472082999999999</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1992894858121872</v>
+        <v>0.19928944</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.7561665177345276</v>
+        <v>0.75616693</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2544029951975649</v>
+        <v>0.2544028926946942</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>36.2181156873703</v>
+        <v>36.21810376644135</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -28880,19 +28880,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.07363836467266083</v>
+        <v>0.07363834</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2202922850847244</v>
+        <v>0.22029224</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.8147636651992798</v>
+        <v>0.8147639</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2713638971430445</v>
+        <v>0.271363855958967</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>39.46034908294678</v>
+        <v>39.46033120155335</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -28912,16 +28912,16 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06018460169434547</v>
+        <v>0.060184598</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2066513150930405</v>
+        <v>0.20665132</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.477622002363205</v>
+        <v>0.477622</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2453255015165473</v>
+        <v>0.2453254939240012</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>31.94723427295685</v>
@@ -28942,16 +28942,16 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.04660527035593987</v>
+        <v>0.04660527</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.178882896900177</v>
+        <v>0.1788829</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.4048599898815155</v>
+        <v>0.40486</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2158825383303149</v>
+        <v>0.2158825383303148</v>
       </c>
       <c r="P23" s="8" t="n">
         <v>28.75089347362518</v>
@@ -28974,19 +28974,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.07407913357019424</v>
+        <v>0.07410104000000001</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2089413851499557</v>
+        <v>0.20900765</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9393333196640015</v>
+        <v>0.93943316</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2721748217050839</v>
+        <v>0.27221505887285</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>36.33348941802979</v>
+        <v>36.34230196475983</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -29004,19 +29004,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.06513776630163193</v>
+        <v>0.073455326</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2014961987733841</v>
+        <v>0.20909543</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.7772274613380432</v>
+        <v>0.9441943</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2552210146160224</v>
+        <v>0.2710264309235101</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>36.48949861526489</v>
+        <v>36.39487028121948</v>
       </c>
     </row>
   </sheetData>
@@ -29316,19 +29316,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05333434849253286</v>
+        <v>0.0574484426410399</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1836392004221472</v>
+        <v>0.1882816998517704</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.5090276832651499</v>
+        <v>0.6841986774185758</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2309423055495308</v>
+        <v>0.2396840475314116</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>30.73537468940822</v>
+        <v>33.70231028308675</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -29346,19 +29346,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.05333434849253286</v>
+        <v>0.0574484426410399</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1836392004221472</v>
+        <v>0.1882816998517704</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.5090276832651499</v>
+        <v>0.6841986774185758</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2309423055495308</v>
+        <v>0.2396840475314116</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>30.73537468940822</v>
+        <v>33.70231028308675</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -29440,19 +29440,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05647583250647753</v>
+        <v>0.0599321209866623</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1889599991280345</v>
+        <v>0.1957740869592713</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4916728426443628</v>
+        <v>0.6529889603216589</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2376464443379651</v>
+        <v>0.2448103776122703</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>31.72251891527469</v>
+        <v>35.20564689676128</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -29470,19 +29470,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.0564866539691606</v>
+        <v>0.0599128752028844</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1890048894648294</v>
+        <v>0.1957360451728503</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.4918100429896764</v>
+        <v>0.6529417425553669</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2376692112351968</v>
+        <v>0.2447710669235325</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>31.72947986933249</v>
+        <v>35.19944052344939</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -30018,19 +30018,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05700054659152098</v>
+        <v>0.05978584910091</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1898407677307632</v>
+        <v>0.1940719739274028</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.4945756828900943</v>
+        <v>0.6574442967019115</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2387478724334962</v>
+        <v>0.2445114498360148</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>31.85292193832749</v>
+        <v>34.87238085923561</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -30044,23 +30044,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.0556301550259614</v>
+        <v>0.0556258741463286</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1908059756340408</v>
+        <v>0.1804888867595408</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.5416032907797917</v>
+        <v>0.748225133414409</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.235860456681406</v>
+        <v>0.2358513814806447</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>31.93652788079907</v>
+        <v>32.29418917991769</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -30162,19 +30162,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.0569133572280407</v>
+        <v>0.056913357</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1850843280553818</v>
+        <v>0.18508437</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.7125810384750366</v>
+        <v>0.7125809</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.2385652054010406</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>32.99516141414642</v>
+        <v>32.9951673746109</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -30192,13 +30192,13 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.06025488674640656</v>
+        <v>0.060254887</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1954947113990784</v>
+        <v>0.19549471</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.6603654026985168</v>
+        <v>0.6603654</v>
       </c>
       <c r="O22" s="8" t="n">
         <v>0.2454687082835744</v>
@@ -30224,19 +30224,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0411030612885952</v>
+        <v>0.041102786</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1632492691278458</v>
+        <v>0.1632481</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2706409394741058</v>
+        <v>0.27064356</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2027388992980755</v>
+        <v>0.2027382194286837</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>24.48655515909195</v>
+        <v>24.48633462190628</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -30254,16 +30254,16 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.03516658022999763</v>
+        <v>0.035166588</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1663991510868073</v>
+        <v>0.16639917</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2972177565097809</v>
+        <v>0.29721776</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1875275452566839</v>
+        <v>0.1875275651219794</v>
       </c>
       <c r="P23" s="8" t="n">
         <v>24.82984513044357</v>
@@ -30286,19 +30286,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05454545095562935</v>
+        <v>0.0547347</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.180022120475769</v>
+        <v>0.18036981</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7066751718521118</v>
+        <v>0.7083819</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2335496755631002</v>
+        <v>0.2339544815302359</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>32.19816088676453</v>
+        <v>32.24345743656158</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -30316,19 +30316,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.05457418039441109</v>
+        <v>0.054562617</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1798392832279205</v>
+        <v>0.17979993</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.6806756854057312</v>
+        <v>0.68092936</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2336111735221821</v>
+        <v>0.2335864231784986</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>32.46197998523712</v>
+        <v>32.45558738708496</v>
       </c>
     </row>
   </sheetData>
